--- a/Activity Report.xlsx
+++ b/Activity Report.xlsx
@@ -9,10 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7450"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7450" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="OCT 2015" sheetId="1" state="hidden" r:id="rId1"/>
+    <sheet name="NOV 2015" sheetId="2" r:id="rId2"/>
+    <sheet name="JAN 2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="60">
   <si>
     <t>Date</t>
   </si>
@@ -41,14 +43,176 @@
     <t>LFSI ACTIVITY REPORT</t>
   </si>
   <si>
-    <t>Development of customer module (web template)</t>
+    <t>14:00 - 20:00</t>
+  </si>
+  <si>
+    <t>9:00 - 17:00</t>
+  </si>
+  <si>
+    <t>12:00 - 15:00</t>
+  </si>
+  <si>
+    <t>13:00 - 19:00</t>
+  </si>
+  <si>
+    <t>14:00 - 21:00</t>
+  </si>
+  <si>
+    <t>8:00 - 16:00</t>
+  </si>
+  <si>
+    <t>13:00 - 21:00</t>
+  </si>
+  <si>
+    <t>15:00 - 23:00</t>
+  </si>
+  <si>
+    <t>13:00 - 16:00</t>
+  </si>
+  <si>
+    <t>8:00 - 13:00</t>
+  </si>
+  <si>
+    <t>15:00 - 20:00</t>
+  </si>
+  <si>
+    <t>7:00 - 15:00</t>
+  </si>
+  <si>
+    <t>13:00 - 20:00</t>
+  </si>
+  <si>
+    <t>6:00 - 14:00</t>
+  </si>
+  <si>
+    <t>15:00 - 18:00</t>
+  </si>
+  <si>
+    <t>Website Development</t>
+  </si>
+  <si>
+    <t>15:00-17:00</t>
+  </si>
+  <si>
+    <t>13:00-18:00</t>
+  </si>
+  <si>
+    <t>14:00-21:00</t>
+  </si>
+  <si>
+    <t>9:00-14:00</t>
+  </si>
+  <si>
+    <t>Achiever's Night Rehearsal</t>
+  </si>
+  <si>
+    <t>9:00-18:00</t>
+  </si>
+  <si>
+    <t>Assistance in Achiever's Night voice-overs and PPT slides</t>
+  </si>
+  <si>
+    <t>13:00-20:00</t>
+  </si>
+  <si>
+    <t>Website Development &amp; update of PPT slides</t>
+  </si>
+  <si>
+    <t>12:00-20:00</t>
+  </si>
+  <si>
+    <t>16:00-22:00</t>
+  </si>
+  <si>
+    <t>Editing of PPT slides</t>
+  </si>
+  <si>
+    <t>9:00-19:00</t>
+  </si>
+  <si>
+    <t>Dry Run for Achievers' Night</t>
+  </si>
+  <si>
+    <t>15:00-19:00</t>
+  </si>
+  <si>
+    <t>13:00-21:00</t>
+  </si>
+  <si>
+    <t>15:00-23:00</t>
+  </si>
+  <si>
+    <t>Achievers' Night 2015</t>
+  </si>
+  <si>
+    <t>18:00-02:00</t>
+  </si>
+  <si>
+    <t>Number of Hours:</t>
+  </si>
+  <si>
+    <t># of Hours</t>
+  </si>
+  <si>
+    <t>106 Hours</t>
+  </si>
+  <si>
+    <t>Preparation for Jedu's birthday (invitation); Website development</t>
+  </si>
+  <si>
+    <t>Preparation for Jedu's birthday (program); Website development</t>
+  </si>
+  <si>
+    <t>Website development</t>
+  </si>
+  <si>
+    <t>Admin module (adding, deleting, and updating distributors)</t>
+  </si>
+  <si>
+    <t>8:00 - 6:00</t>
+  </si>
+  <si>
+    <t>8:00 - 8:00</t>
+  </si>
+  <si>
+    <t>Training</t>
+  </si>
+  <si>
+    <t>Meeting with thesis adviser</t>
+  </si>
+  <si>
+    <t>8:00 - 5:00</t>
+  </si>
+  <si>
+    <t>8:00 - 7:00</t>
+  </si>
+  <si>
+    <t>Program Committee</t>
+  </si>
+  <si>
+    <t>7:00 - 5:00</t>
+  </si>
+  <si>
+    <t>12:00-5:00</t>
+  </si>
+  <si>
+    <t>7:00-5:00</t>
+  </si>
+  <si>
+    <t>9:00-5:00</t>
+  </si>
+  <si>
+    <t>3:00-7:00</t>
+  </si>
+  <si>
+    <t>8:00 pm - 12:00 am</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -72,16 +236,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -89,25 +266,416 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="19">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="21" formatCode="d\-mmm"/>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="21" formatCode="d\-mmm"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="21" formatCode="d\-mmm"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -118,6 +686,46 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:D20" totalsRowShown="0" headerRowDxfId="18">
+  <autoFilter ref="A3:D20"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Date" dataDxfId="17"/>
+    <tableColumn id="2" name="Time"/>
+    <tableColumn id="3" name="Activity" dataDxfId="16"/>
+    <tableColumn id="4" name="Remarks"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A3:E19" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+  <autoFilter ref="A3:E19"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Date" dataDxfId="13"/>
+    <tableColumn id="2" name="Time" dataDxfId="12"/>
+    <tableColumn id="3" name="Activity" dataDxfId="11"/>
+    <tableColumn id="4" name="Remarks" dataDxfId="10"/>
+    <tableColumn id="5" name="# of Hours" dataDxfId="9"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A2:D55" totalsRowShown="0" headerRowDxfId="8" dataDxfId="6" headerRowBorderDxfId="7" tableBorderDxfId="5" totalsRowBorderDxfId="4">
+  <autoFilter ref="A2:D55"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Date" dataDxfId="3"/>
+    <tableColumn id="2" name="Time" dataDxfId="2"/>
+    <tableColumn id="3" name="Activity" dataDxfId="1"/>
+    <tableColumn id="4" name="Remarks" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -383,27 +991,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="14.90625" customWidth="1"/>
-    <col min="2" max="2" width="16.7265625" customWidth="1"/>
+    <col min="2" max="2" width="18.7265625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="43.6328125" customWidth="1"/>
     <col min="4" max="4" width="17.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="26" x14ac:dyDescent="0.6">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
@@ -420,14 +1028,190 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="3">
+      <c r="A4" s="4">
         <v>42272</v>
       </c>
-      <c r="B4" s="4">
-        <v>0.375</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="5">
+        <v>42276</v>
+      </c>
+      <c r="B5" t="s">
         <v>5</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="5">
+        <v>42278</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="5">
+        <v>42280</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="5">
+        <v>42283</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="5">
+        <v>42285</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="5">
+        <v>42289</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="5">
+        <v>42290</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="5">
+        <v>42292</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="5">
+        <v>42293</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="5">
+        <v>42294</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="5">
+        <v>42295</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="5">
+        <v>42296</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="5">
+        <v>42297</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" s="5">
+        <v>42299</v>
+      </c>
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" s="5">
+        <v>42305</v>
+      </c>
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" s="5">
+        <v>42306</v>
+      </c>
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -436,5 +1220,923 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E21"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.6328125" customWidth="1"/>
+    <col min="4" max="4" width="17.453125" customWidth="1"/>
+    <col min="5" max="5" width="11.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="26" x14ac:dyDescent="0.6">
+      <c r="A1" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="7">
+        <v>42309</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="7">
+        <v>42310</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="10">
+        <v>42311</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="10">
+        <v>42313</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A8" s="10">
+        <v>42317</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="10">
+        <v>42318</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="10">
+        <v>42319</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="10">
+        <v>42320</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="10">
+        <v>42324</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="10">
+        <v>42325</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="10">
+        <v>42326</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="10">
+        <v>42327</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="10">
+        <v>42328</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="10">
+        <v>42332</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="10">
+        <v>42333</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="10">
+        <v>42334</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="10"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="9"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:D55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51:C55"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.453125" customWidth="1"/>
+    <col min="2" max="2" width="16.36328125" customWidth="1"/>
+    <col min="3" max="3" width="32" customWidth="1"/>
+    <col min="4" max="4" width="28.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="18">
+        <v>42373</v>
+      </c>
+      <c r="B3" s="19"/>
+      <c r="C3" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="21"/>
+    </row>
+    <row r="4" spans="1:4" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="18">
+        <v>42374</v>
+      </c>
+      <c r="B4" s="19"/>
+      <c r="C4" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="21"/>
+    </row>
+    <row r="5" spans="1:4" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="18">
+        <v>42375</v>
+      </c>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="18">
+        <v>42376</v>
+      </c>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="18">
+        <v>42377</v>
+      </c>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="18">
+        <v>42380</v>
+      </c>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="18">
+        <v>42381</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="22"/>
+    </row>
+    <row r="10" spans="1:4" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="18">
+        <v>42382</v>
+      </c>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="18">
+        <v>42383</v>
+      </c>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="18">
+        <v>42384</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="22"/>
+    </row>
+    <row r="13" spans="1:4" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="18">
+        <v>42385</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="22"/>
+    </row>
+    <row r="14" spans="1:4" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="18">
+        <v>42386</v>
+      </c>
+      <c r="B14" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="22"/>
+    </row>
+    <row r="15" spans="1:4" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="18">
+        <v>42387</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="22"/>
+    </row>
+    <row r="16" spans="1:4" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="18">
+        <v>42388</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="22"/>
+    </row>
+    <row r="17" spans="1:4" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="18">
+        <v>42389</v>
+      </c>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="22"/>
+    </row>
+    <row r="18" spans="1:4" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="18">
+        <v>42390</v>
+      </c>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="22"/>
+    </row>
+    <row r="19" spans="1:4" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="18">
+        <v>42391</v>
+      </c>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="22"/>
+    </row>
+    <row r="20" spans="1:4" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="18">
+        <v>42394</v>
+      </c>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="22"/>
+    </row>
+    <row r="21" spans="1:4" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="18">
+        <v>42395</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" s="22"/>
+    </row>
+    <row r="22" spans="1:4" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="18">
+        <v>42396</v>
+      </c>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="22"/>
+    </row>
+    <row r="23" spans="1:4" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="18">
+        <v>42397</v>
+      </c>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" s="22"/>
+    </row>
+    <row r="24" spans="1:4" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="23">
+        <v>42398</v>
+      </c>
+      <c r="B24" s="24"/>
+      <c r="C24" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" s="25"/>
+    </row>
+    <row r="25" spans="1:4" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="23">
+        <v>42401</v>
+      </c>
+      <c r="B25" s="24"/>
+      <c r="C25" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25" s="25"/>
+    </row>
+    <row r="26" spans="1:4" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="23">
+        <v>42402</v>
+      </c>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" s="22"/>
+    </row>
+    <row r="27" spans="1:4" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="23">
+        <v>42403</v>
+      </c>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D27" s="22"/>
+    </row>
+    <row r="28" spans="1:4" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="23">
+        <v>42404</v>
+      </c>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D28" s="22"/>
+    </row>
+    <row r="29" spans="1:4" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="23">
+        <v>42405</v>
+      </c>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D29" s="22"/>
+    </row>
+    <row r="30" spans="1:4" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="23">
+        <v>42408</v>
+      </c>
+      <c r="B30" s="24"/>
+      <c r="C30" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D30" s="25"/>
+    </row>
+    <row r="31" spans="1:4" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="23">
+        <v>42409</v>
+      </c>
+      <c r="B31" s="19"/>
+      <c r="C31" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D31" s="22"/>
+    </row>
+    <row r="32" spans="1:4" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="23">
+        <v>42410</v>
+      </c>
+      <c r="B32" s="19"/>
+      <c r="C32" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D32" s="22"/>
+    </row>
+    <row r="33" spans="1:4" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="23">
+        <v>42411</v>
+      </c>
+      <c r="B33" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D33" s="22"/>
+    </row>
+    <row r="34" spans="1:4" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="23">
+        <v>42412</v>
+      </c>
+      <c r="B34" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D34" s="22"/>
+    </row>
+    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="23">
+        <v>42415</v>
+      </c>
+      <c r="B35" s="24"/>
+      <c r="C35" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="D35" s="25"/>
+    </row>
+    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="23">
+        <v>42416</v>
+      </c>
+      <c r="B36" s="19"/>
+      <c r="C36" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="D36" s="22"/>
+    </row>
+    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="23">
+        <v>42417</v>
+      </c>
+      <c r="B37" s="19"/>
+      <c r="C37" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="D37" s="22"/>
+    </row>
+    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="23">
+        <v>42418</v>
+      </c>
+      <c r="B38" s="19"/>
+      <c r="C38" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="D38" s="22"/>
+    </row>
+    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="23">
+        <v>42419</v>
+      </c>
+      <c r="B39" s="19"/>
+      <c r="C39" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="D39" s="22"/>
+    </row>
+    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="23">
+        <v>42422</v>
+      </c>
+      <c r="B40" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="C40" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="D40" s="25"/>
+    </row>
+    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="23">
+        <v>42423</v>
+      </c>
+      <c r="B41" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C41" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="D41" s="22"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A42" s="23">
+        <v>42424</v>
+      </c>
+      <c r="B42" s="24"/>
+      <c r="C42" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="D42" s="25"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A43" s="23">
+        <v>42425</v>
+      </c>
+      <c r="B43" s="19"/>
+      <c r="C43" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="D43" s="22"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A44" s="23">
+        <v>42426</v>
+      </c>
+      <c r="B44" s="19"/>
+      <c r="C44" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="D44" s="22"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A45" s="23">
+        <v>42429</v>
+      </c>
+      <c r="B45" s="24"/>
+      <c r="C45" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="D45" s="25"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A46" s="23">
+        <v>42430</v>
+      </c>
+      <c r="B46" s="19"/>
+      <c r="C46" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="D46" s="22"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A47" s="23">
+        <v>42431</v>
+      </c>
+      <c r="B47" s="19"/>
+      <c r="C47" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="D47" s="22"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A48" s="23">
+        <v>42432</v>
+      </c>
+      <c r="B48" s="19"/>
+      <c r="C48" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="D48" s="22"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A49" s="23">
+        <v>42433</v>
+      </c>
+      <c r="B49" s="19"/>
+      <c r="C49" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="D49" s="22"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A50" s="23">
+        <v>42433</v>
+      </c>
+      <c r="B50" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C50" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="D50" s="25"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A51" s="23">
+        <v>42436</v>
+      </c>
+      <c r="B51" s="24"/>
+      <c r="C51" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="D51" s="25"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A52" s="23">
+        <v>42437</v>
+      </c>
+      <c r="B52" s="19"/>
+      <c r="C52" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="D52" s="22"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A53" s="23">
+        <v>42438</v>
+      </c>
+      <c r="B53" s="19"/>
+      <c r="C53" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="D53" s="22"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A54" s="23">
+        <v>42439</v>
+      </c>
+      <c r="B54" s="19"/>
+      <c r="C54" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="D54" s="22"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A55" s="23">
+        <v>42440</v>
+      </c>
+      <c r="B55" s="19"/>
+      <c r="C55" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="D55" s="22"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Activity Report.xlsx
+++ b/Activity Report.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="83">
   <si>
     <t>Date</t>
   </si>
@@ -206,6 +206,75 @@
   </si>
   <si>
     <t>8:00 pm - 12:00 am</t>
+  </si>
+  <si>
+    <t>6:00-12:00</t>
+  </si>
+  <si>
+    <t>11:00-4:00</t>
+  </si>
+  <si>
+    <t>8:00-7:00</t>
+  </si>
+  <si>
+    <t>9:00-3:00</t>
+  </si>
+  <si>
+    <t>7:00-4:00</t>
+  </si>
+  <si>
+    <t>7:00-2:00</t>
+  </si>
+  <si>
+    <t>9:00-2:00</t>
+  </si>
+  <si>
+    <t>Appointment with thesis adviser</t>
+  </si>
+  <si>
+    <t>11:00-3:00</t>
+  </si>
+  <si>
+    <t>1:00-8:00</t>
+  </si>
+  <si>
+    <t>Presentation of Thesis</t>
+  </si>
+  <si>
+    <t>DTR</t>
+  </si>
+  <si>
+    <t>3:00 PM - 1:00 AM</t>
+  </si>
+  <si>
+    <t>7:00-3:00</t>
+  </si>
+  <si>
+    <t>8:00-3:00</t>
+  </si>
+  <si>
+    <t>10:00-7:00</t>
+  </si>
+  <si>
+    <t>8:00-6:00</t>
+  </si>
+  <si>
+    <t>8:00-2:00</t>
+  </si>
+  <si>
+    <t>8:00-5:00</t>
+  </si>
+  <si>
+    <t>9:00-4:00</t>
+  </si>
+  <si>
+    <t>3:00-5:00</t>
+  </si>
+  <si>
+    <t>Meeting for LFSI Achievers' Night</t>
+  </si>
+  <si>
+    <t>Achievers' Night production</t>
   </si>
 </sst>
 </file>
@@ -716,8 +785,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A2:D55" totalsRowShown="0" headerRowDxfId="8" dataDxfId="6" headerRowBorderDxfId="7" tableBorderDxfId="5" totalsRowBorderDxfId="4">
-  <autoFilter ref="A2:D55"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A2:D123" totalsRowShown="0" headerRowDxfId="8" dataDxfId="6" headerRowBorderDxfId="7" tableBorderDxfId="5" totalsRowBorderDxfId="4">
+  <autoFilter ref="A2:D123"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Date" dataDxfId="3"/>
     <tableColumn id="2" name="Time" dataDxfId="2"/>
@@ -1538,10 +1607,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D55"/>
+  <dimension ref="A2:D123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51:C55"/>
+      <selection activeCell="D119" sqref="D119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1990,7 +2059,7 @@
       </c>
       <c r="D41" s="22"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" s="23">
         <v>42424</v>
       </c>
@@ -2000,7 +2069,7 @@
       </c>
       <c r="D42" s="25"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" s="23">
         <v>42425</v>
       </c>
@@ -2010,7 +2079,7 @@
       </c>
       <c r="D43" s="22"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" s="23">
         <v>42426</v>
       </c>
@@ -2020,7 +2089,7 @@
       </c>
       <c r="D44" s="22"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" s="23">
         <v>42429</v>
       </c>
@@ -2030,7 +2099,7 @@
       </c>
       <c r="D45" s="25"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" s="23">
         <v>42430</v>
       </c>
@@ -2040,7 +2109,7 @@
       </c>
       <c r="D46" s="22"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" s="23">
         <v>42431</v>
       </c>
@@ -2050,7 +2119,7 @@
       </c>
       <c r="D47" s="22"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48" s="23">
         <v>42432</v>
       </c>
@@ -2060,7 +2129,7 @@
       </c>
       <c r="D48" s="22"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49" s="23">
         <v>42433</v>
       </c>
@@ -2070,7 +2139,7 @@
       </c>
       <c r="D49" s="22"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50" s="23">
         <v>42433</v>
       </c>
@@ -2082,7 +2151,7 @@
       </c>
       <c r="D50" s="25"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51" s="23">
         <v>42436</v>
       </c>
@@ -2092,7 +2161,7 @@
       </c>
       <c r="D51" s="25"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52" s="23">
         <v>42437</v>
       </c>
@@ -2102,7 +2171,7 @@
       </c>
       <c r="D52" s="22"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53" s="23">
         <v>42438</v>
       </c>
@@ -2112,7 +2181,7 @@
       </c>
       <c r="D53" s="22"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54" s="23">
         <v>42439</v>
       </c>
@@ -2122,7 +2191,7 @@
       </c>
       <c r="D54" s="22"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55" s="23">
         <v>42440</v>
       </c>
@@ -2131,6 +2200,770 @@
         <v>45</v>
       </c>
       <c r="D55" s="22"/>
+    </row>
+    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="23">
+        <v>42443</v>
+      </c>
+      <c r="B56" s="24"/>
+      <c r="C56" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="D56" s="25"/>
+    </row>
+    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="23">
+        <v>42444</v>
+      </c>
+      <c r="B57" s="19"/>
+      <c r="C57" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="D57" s="22"/>
+    </row>
+    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="23">
+        <v>42445</v>
+      </c>
+      <c r="B58" s="19"/>
+      <c r="C58" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="D58" s="22"/>
+    </row>
+    <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="23">
+        <v>42446</v>
+      </c>
+      <c r="B59" s="19"/>
+      <c r="C59" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="D59" s="22"/>
+    </row>
+    <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="23">
+        <v>42447</v>
+      </c>
+      <c r="B60" s="19"/>
+      <c r="C60" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="D60" s="22"/>
+    </row>
+    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="23">
+        <v>42450</v>
+      </c>
+      <c r="B61" s="24"/>
+      <c r="C61" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="D61" s="25"/>
+    </row>
+    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="23">
+        <v>42451</v>
+      </c>
+      <c r="B62" s="19"/>
+      <c r="C62" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="D62" s="22"/>
+    </row>
+    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="23">
+        <v>42452</v>
+      </c>
+      <c r="B63" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="C63" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="D63" s="25"/>
+    </row>
+    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="23">
+        <v>42453</v>
+      </c>
+      <c r="B64" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C64" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="D64" s="22"/>
+    </row>
+    <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="23">
+        <v>42454</v>
+      </c>
+      <c r="B65" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C65" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="D65" s="22"/>
+    </row>
+    <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="23">
+        <v>42455</v>
+      </c>
+      <c r="B66" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C66" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="D66" s="22"/>
+    </row>
+    <row r="67" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="23">
+        <v>42457</v>
+      </c>
+      <c r="B67" s="24"/>
+      <c r="C67" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="D67" s="25"/>
+    </row>
+    <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="23">
+        <v>42458</v>
+      </c>
+      <c r="B68" s="19"/>
+      <c r="C68" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="D68" s="22"/>
+    </row>
+    <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="23">
+        <v>42459</v>
+      </c>
+      <c r="B69" s="19"/>
+      <c r="C69" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="D69" s="22"/>
+    </row>
+    <row r="70" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="23">
+        <v>42460</v>
+      </c>
+      <c r="B70" s="19"/>
+      <c r="C70" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="D70" s="22"/>
+    </row>
+    <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="23">
+        <v>42461</v>
+      </c>
+      <c r="B71" s="19"/>
+      <c r="C71" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="D71" s="22"/>
+    </row>
+    <row r="72" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="23">
+        <v>42462</v>
+      </c>
+      <c r="B72" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="C72" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="D72" s="22"/>
+    </row>
+    <row r="73" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="23">
+        <v>42463</v>
+      </c>
+      <c r="B73" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C73" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="D73" s="22"/>
+    </row>
+    <row r="74" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="23">
+        <v>42464</v>
+      </c>
+      <c r="B74" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C74" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="D74" s="22"/>
+    </row>
+    <row r="75" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="23">
+        <v>42465</v>
+      </c>
+      <c r="B75" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C75" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="D75" s="22"/>
+    </row>
+    <row r="76" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="23">
+        <v>42466</v>
+      </c>
+      <c r="B76" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C76" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="D76" s="22"/>
+    </row>
+    <row r="77" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="23">
+        <v>42467</v>
+      </c>
+      <c r="B77" s="19"/>
+      <c r="C77" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="D77" s="22"/>
+    </row>
+    <row r="78" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="23">
+        <v>42468</v>
+      </c>
+      <c r="B78" s="19"/>
+      <c r="C78" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="D78" s="22"/>
+    </row>
+    <row r="79" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="23">
+        <v>42469</v>
+      </c>
+      <c r="B79" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C79" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="D79" s="22"/>
+    </row>
+    <row r="80" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="23">
+        <v>42470</v>
+      </c>
+      <c r="B80" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="C80" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="D80" s="22"/>
+    </row>
+    <row r="81" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="23">
+        <v>42471</v>
+      </c>
+      <c r="B81" s="19"/>
+      <c r="C81" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="D81" s="22"/>
+    </row>
+    <row r="82" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="23">
+        <v>42472</v>
+      </c>
+      <c r="B82" s="19"/>
+      <c r="C82" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="D82" s="22"/>
+    </row>
+    <row r="83" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="23">
+        <v>42473</v>
+      </c>
+      <c r="B83" s="19"/>
+      <c r="C83" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="D83" s="22"/>
+    </row>
+    <row r="84" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="23">
+        <v>42474</v>
+      </c>
+      <c r="B84" s="19"/>
+      <c r="C84" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="D84" s="22"/>
+    </row>
+    <row r="85" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="23">
+        <v>42475</v>
+      </c>
+      <c r="B85" s="19"/>
+      <c r="C85" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="D85" s="22"/>
+    </row>
+    <row r="86" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="23">
+        <v>42476</v>
+      </c>
+      <c r="B86" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C86" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="D86" s="22"/>
+    </row>
+    <row r="87" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="23">
+        <v>42477</v>
+      </c>
+      <c r="B87" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="C87" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="D87" s="22"/>
+    </row>
+    <row r="88" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="23">
+        <v>42478</v>
+      </c>
+      <c r="B88" s="19"/>
+      <c r="C88" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="D88" s="22"/>
+    </row>
+    <row r="89" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="23">
+        <v>42479</v>
+      </c>
+      <c r="B89" s="19"/>
+      <c r="C89" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="D89" s="22"/>
+    </row>
+    <row r="90" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A90" s="23">
+        <v>42480</v>
+      </c>
+      <c r="B90" s="19"/>
+      <c r="C90" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="D90" s="22"/>
+    </row>
+    <row r="91" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A91" s="23">
+        <v>42481</v>
+      </c>
+      <c r="B91" s="19"/>
+      <c r="C91" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="D91" s="22"/>
+    </row>
+    <row r="92" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="23">
+        <v>42482</v>
+      </c>
+      <c r="B92" s="19"/>
+      <c r="C92" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="D92" s="22"/>
+    </row>
+    <row r="93" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A93" s="23">
+        <v>42483</v>
+      </c>
+      <c r="B93" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C93" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="D93" s="22"/>
+    </row>
+    <row r="94" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A94" s="23">
+        <v>42484</v>
+      </c>
+      <c r="B94" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="C94" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="D94" s="22"/>
+    </row>
+    <row r="95" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A95" s="23">
+        <v>42485</v>
+      </c>
+      <c r="B95" s="19"/>
+      <c r="C95" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="D95" s="22"/>
+    </row>
+    <row r="96" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A96" s="23">
+        <v>42486</v>
+      </c>
+      <c r="B96" s="19"/>
+      <c r="C96" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="D96" s="22"/>
+    </row>
+    <row r="97" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A97" s="23">
+        <v>42487</v>
+      </c>
+      <c r="B97" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="C97" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D97" s="22"/>
+    </row>
+    <row r="98" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A98" s="23">
+        <v>42488</v>
+      </c>
+      <c r="B98" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="C98" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D98" s="22"/>
+    </row>
+    <row r="99" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A99" s="23">
+        <v>42489</v>
+      </c>
+      <c r="B99" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C99" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="D99" s="22"/>
+    </row>
+    <row r="100" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A100" s="23">
+        <v>42500</v>
+      </c>
+      <c r="B100" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="C100" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D100" s="25"/>
+    </row>
+    <row r="101" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A101" s="23">
+        <v>42501</v>
+      </c>
+      <c r="B101" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="C101" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D101" s="22"/>
+    </row>
+    <row r="102" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A102" s="23">
+        <v>42502</v>
+      </c>
+      <c r="B102" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="C102" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D102" s="22"/>
+    </row>
+    <row r="103" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A103" s="23">
+        <v>42503</v>
+      </c>
+      <c r="B103" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="C103" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D103" s="22"/>
+    </row>
+    <row r="104" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A104" s="23">
+        <v>42506</v>
+      </c>
+      <c r="B104" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="C104" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D104" s="25"/>
+    </row>
+    <row r="105" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A105" s="23">
+        <v>42507</v>
+      </c>
+      <c r="B105" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="C105" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D105" s="22"/>
+    </row>
+    <row r="106" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A106" s="23">
+        <v>42508</v>
+      </c>
+      <c r="B106" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="C106" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D106" s="22"/>
+    </row>
+    <row r="107" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A107" s="23">
+        <v>42509</v>
+      </c>
+      <c r="B107" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C107" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D107" s="22"/>
+    </row>
+    <row r="108" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A108" s="23">
+        <v>42510</v>
+      </c>
+      <c r="B108" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="C108" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D108" s="22"/>
+    </row>
+    <row r="109" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A109" s="23">
+        <v>42513</v>
+      </c>
+      <c r="B109" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="C109" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D109" s="25"/>
+    </row>
+    <row r="110" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A110" s="23">
+        <v>42514</v>
+      </c>
+      <c r="B110" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="C110" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D110" s="22"/>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A111" s="23">
+        <v>42515</v>
+      </c>
+      <c r="B111" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="C111" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D111" s="22"/>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A112" s="23">
+        <v>42516</v>
+      </c>
+      <c r="B112" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="C112" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D112" s="22"/>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A113" s="23">
+        <v>42517</v>
+      </c>
+      <c r="B113" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="C113" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D113" s="22"/>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A114" s="23">
+        <v>42520</v>
+      </c>
+      <c r="B114" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="C114" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D114" s="25"/>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A115" s="23">
+        <v>42521</v>
+      </c>
+      <c r="B115" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="C115" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D115" s="22"/>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A116" s="23">
+        <v>42522</v>
+      </c>
+      <c r="B116" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="C116" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="D116" s="22"/>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A117" s="23">
+        <v>42523</v>
+      </c>
+      <c r="B117" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="C117" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="D117" s="22"/>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A118" s="23">
+        <v>42524</v>
+      </c>
+      <c r="B118" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="C118" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D118" s="22"/>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A119" s="23">
+        <v>42527</v>
+      </c>
+      <c r="B119" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="C119" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="D119" s="25"/>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A120" s="23">
+        <v>42528</v>
+      </c>
+      <c r="B120" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="C120" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="D120" s="22"/>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A121" s="23">
+        <v>42529</v>
+      </c>
+      <c r="B121" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="C121" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="D121" s="22"/>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A122" s="23">
+        <v>42530</v>
+      </c>
+      <c r="B122" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="C122" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="D122" s="22"/>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A123" s="23">
+        <v>42531</v>
+      </c>
+      <c r="B123" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="C123" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="D123" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
